--- a/DEV/US1_CASODEPRUEBA_DEV.xlsx
+++ b/DEV/US1_CASODEPRUEBA_DEV.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{505F44D0-6F74-4D06-81AF-B8BC34184E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE9E1E-1590-48E0-AD85-E03D71B1CE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7989457-68F4-4A2A-B67F-64262A68E569}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ESCENARIOS_CP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
